--- a/web/output.xlsx
+++ b/web/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Unnamed: 2</t>
   </si>
@@ -25,133 +25,91 @@
     <t>average</t>
   </si>
   <si>
-    <t>Rzayev Alikamran</t>
-  </si>
-  <si>
-    <t>Fataliyev Fagan</t>
-  </si>
-  <si>
-    <t>Iskandarli Rajab</t>
-  </si>
-  <si>
-    <t>Kuznetsov Pavel</t>
-  </si>
-  <si>
-    <t>Aliyev Abdulla</t>
-  </si>
-  <si>
-    <t>Guliyev Ismail</t>
-  </si>
-  <si>
-    <t>Shamsudinov Nail</t>
-  </si>
-  <si>
-    <t>Hagverdiyev Elnur</t>
-  </si>
-  <si>
-    <t>Yavarova Emiliya</t>
-  </si>
-  <si>
-    <t>Rzayeva Nurana</t>
-  </si>
-  <si>
-    <t>Mammadov Rafi</t>
-  </si>
-  <si>
-    <t>Aliyev Mahammad</t>
-  </si>
-  <si>
-    <t>Sadigli Javid</t>
-  </si>
-  <si>
-    <t>Seyidli Mirjalal</t>
-  </si>
-  <si>
-    <t>Ganizada Nazim</t>
-  </si>
-  <si>
-    <t>Gulamova Narmin</t>
-  </si>
-  <si>
-    <t>Babayeva Sofiya</t>
-  </si>
-  <si>
-    <t>Taghizada Rahman</t>
-  </si>
-  <si>
-    <t>Nuruzada Hamza</t>
-  </si>
-  <si>
-    <t>Ismayilova Ayan</t>
-  </si>
-  <si>
-    <t>Aghayarli Anar</t>
-  </si>
-  <si>
-    <t>Shakikhanli Farida</t>
-  </si>
-  <si>
-    <t>Maharramli Javid</t>
+    <t>Guliyev Rasul</t>
+  </si>
+  <si>
+    <t>Kazimova Natella</t>
+  </si>
+  <si>
+    <t>Sadigli Narmin</t>
+  </si>
+  <si>
+    <t>Abdullayeva Simuzar</t>
   </si>
   <si>
     <t>Aliyev Javid</t>
   </si>
   <si>
-    <t>Bakirov Zakir</t>
-  </si>
-  <si>
-    <t>Hasanli Eldar</t>
-  </si>
-  <si>
-    <t>Kheyirbayov Ismayil</t>
-  </si>
-  <si>
-    <t>Abdullayeva Aysu</t>
-  </si>
-  <si>
-    <t>Rustamov Rahim</t>
-  </si>
-  <si>
-    <t>Mammadov Omar</t>
-  </si>
-  <si>
-    <t>Imanov Tamerlan</t>
-  </si>
-  <si>
-    <t>Zamanova Lala</t>
-  </si>
-  <si>
-    <t>Agharahimov Aghasalim</t>
-  </si>
-  <si>
-    <t>Abdullayeva Narmin</t>
-  </si>
-  <si>
-    <t>Shafizada Suleyman</t>
-  </si>
-  <si>
-    <t>Zahidli Ulkar</t>
-  </si>
-  <si>
-    <t>Orujov Fakhri</t>
-  </si>
-  <si>
-    <t>Bayramova Jamila</t>
-  </si>
-  <si>
-    <t>Eyvazzada Anar</t>
-  </si>
-  <si>
-    <t>Nasirli Zemfirakhanim</t>
-  </si>
-  <si>
-    <t>Malki Hanane</t>
-  </si>
-  <si>
-    <t>Hajiyev Hajiagha</t>
-  </si>
-  <si>
-    <t>CS-22</t>
+    <t>Allahverdiyev Kanan</t>
+  </si>
+  <si>
+    <t>Dashdamirov Azad</t>
+  </si>
+  <si>
+    <t>Mehdiyeva Nazrin</t>
+  </si>
+  <si>
+    <t>Nabi Ulkar</t>
+  </si>
+  <si>
+    <t>Gardashaliyeva Aydan</t>
+  </si>
+  <si>
+    <t>Nuraliyev Murad</t>
+  </si>
+  <si>
+    <t>Rzayeva Inji</t>
+  </si>
+  <si>
+    <t>Jafarzada Nihad</t>
+  </si>
+  <si>
+    <t>Khankishiyev Chingiz</t>
+  </si>
+  <si>
+    <t>Balayev İzzat</t>
+  </si>
+  <si>
+    <t>Baghirli Murad</t>
+  </si>
+  <si>
+    <t>Bakhshiyeva Aysel</t>
+  </si>
+  <si>
+    <t>Mammadli Eljan</t>
+  </si>
+  <si>
+    <t>Asgarov Galib</t>
+  </si>
+  <si>
+    <t>Gurbanli Zhala</t>
+  </si>
+  <si>
+    <t>Baghirzada Tabriz</t>
+  </si>
+  <si>
+    <t>Ojagverdiyeva Khadija</t>
+  </si>
+  <si>
+    <t>Aliyev Farid</t>
+  </si>
+  <si>
+    <t>Yusifov Said</t>
+  </si>
+  <si>
+    <t>Suleymanov Huseyn</t>
+  </si>
+  <si>
+    <t>Baghirov Yusif</t>
+  </si>
+  <si>
+    <t>Babazada Rustam</t>
+  </si>
+  <si>
+    <t>Salman Mahammad</t>
+  </si>
+  <si>
+    <t>GE-22</t>
   </si>
 </sst>
 </file>
@@ -509,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>6.670999999999999</v>
+        <v>2.683416666666667</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -548,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>6.291083333333335</v>
+        <v>2.65775</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -562,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>6.248416666666667</v>
+        <v>2.5765</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -576,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>6.207833333333333</v>
+        <v>2.521416666666667</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -590,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>6.144</v>
+        <v>2.477333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -604,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>6.035333333333334</v>
+        <v>2.2395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -618,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>6.028999999999999</v>
+        <v>2.212666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -632,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>6.008916666666667</v>
+        <v>2.212083333333333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -646,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>5.889583333333333</v>
+        <v>2.14925</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -660,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>5.878166666666666</v>
+        <v>2.08325</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -674,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>5.705833333333333</v>
+        <v>2.047333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -688,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>5.638249999999999</v>
+        <v>1.980083333333333</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -702,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>5.550416666666667</v>
+        <v>1.9235</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -716,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>5.517</v>
+        <v>1.82525</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -730,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>5.443416666666667</v>
+        <v>1.813083333333333</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -744,10 +702,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>5.401333333333334</v>
+        <v>1.77725</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -758,10 +716,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>5.353416666666667</v>
+        <v>1.773666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -772,10 +730,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>5.3385</v>
+        <v>1.637</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -786,10 +744,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>5.294083333333333</v>
+        <v>1.552833333333333</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -800,10 +758,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>5.238833333333334</v>
+        <v>1.500583333333333</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -814,10 +772,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>5.164000000000001</v>
+        <v>1.317916666666666</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -828,10 +786,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>5.122916666666667</v>
+        <v>1.300583333333333</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -842,10 +800,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>4.896083333333333</v>
+        <v>1.18175</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -856,10 +814,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>4.884166666666667</v>
+        <v>1.074916666666667</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -870,10 +828,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>4.854833333333334</v>
+        <v>1.04825</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -884,10 +842,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>4.802</v>
+        <v>0.9893333333333332</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -898,10 +856,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>4.736000000000001</v>
+        <v>0.9440833333333333</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -912,205 +870,9 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>4.684666666666666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>4.647</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>4.641249999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>4.632166666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33">
-        <v>4.431249999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>4.3835</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35">
-        <v>4.320666666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36">
-        <v>4.298916666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37">
-        <v>4.171833333333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38">
-        <v>3.379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39">
-        <v>3.229833333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40">
-        <v>2.96675</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41">
-        <v>0.725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43">
         <v>0</v>
       </c>
     </row>

--- a/web/output.xlsx
+++ b/web/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>Unnamed: 2</t>
   </si>
@@ -25,91 +25,118 @@
     <t>average</t>
   </si>
   <si>
-    <t>Guliyev Rasul</t>
-  </si>
-  <si>
-    <t>Kazimova Natella</t>
-  </si>
-  <si>
-    <t>Sadigli Narmin</t>
-  </si>
-  <si>
-    <t>Abdullayeva Simuzar</t>
-  </si>
-  <si>
-    <t>Aliyev Javid</t>
-  </si>
-  <si>
-    <t>Allahverdiyev Kanan</t>
-  </si>
-  <si>
-    <t>Dashdamirov Azad</t>
-  </si>
-  <si>
-    <t>Mehdiyeva Nazrin</t>
-  </si>
-  <si>
-    <t>Nabi Ulkar</t>
-  </si>
-  <si>
-    <t>Gardashaliyeva Aydan</t>
-  </si>
-  <si>
-    <t>Nuraliyev Murad</t>
-  </si>
-  <si>
-    <t>Rzayeva Inji</t>
-  </si>
-  <si>
-    <t>Jafarzada Nihad</t>
-  </si>
-  <si>
-    <t>Khankishiyev Chingiz</t>
-  </si>
-  <si>
-    <t>Balayev İzzat</t>
-  </si>
-  <si>
-    <t>Baghirli Murad</t>
-  </si>
-  <si>
-    <t>Bakhshiyeva Aysel</t>
-  </si>
-  <si>
-    <t>Mammadli Eljan</t>
-  </si>
-  <si>
-    <t>Asgarov Galib</t>
-  </si>
-  <si>
-    <t>Gurbanli Zhala</t>
-  </si>
-  <si>
-    <t>Baghirzada Tabriz</t>
-  </si>
-  <si>
-    <t>Ojagverdiyeva Khadija</t>
-  </si>
-  <si>
-    <t>Aliyev Farid</t>
-  </si>
-  <si>
-    <t>Yusifov Said</t>
-  </si>
-  <si>
-    <t>Suleymanov Huseyn</t>
-  </si>
-  <si>
-    <t>Baghirov Yusif</t>
-  </si>
-  <si>
-    <t>Babazada Rustam</t>
-  </si>
-  <si>
-    <t>Salman Mahammad</t>
-  </si>
-  <si>
-    <t>GE-22</t>
+    <t>Babayeva Maryam</t>
+  </si>
+  <si>
+    <t>Bayaliyev Ruslan</t>
+  </si>
+  <si>
+    <t>Musayev Tamerlan</t>
+  </si>
+  <si>
+    <t>Alihumbatova Nazrin</t>
+  </si>
+  <si>
+    <t>Huseynli Raziya</t>
+  </si>
+  <si>
+    <t>Hasanli Safarali</t>
+  </si>
+  <si>
+    <t>Nasirli Javidan</t>
+  </si>
+  <si>
+    <t>Juvarlinski Novruz</t>
+  </si>
+  <si>
+    <t>Abdullayev Amin</t>
+  </si>
+  <si>
+    <t>Imranova Jeyran</t>
+  </si>
+  <si>
+    <t>Muzaffarov Kanan</t>
+  </si>
+  <si>
+    <t>Aliyeva Rana</t>
+  </si>
+  <si>
+    <t>Amrali Zuleykha</t>
+  </si>
+  <si>
+    <t>Farajli Suleyman</t>
+  </si>
+  <si>
+    <t>Ibadov Tamerlan</t>
+  </si>
+  <si>
+    <t>Niftaliyeva Ayshan</t>
+  </si>
+  <si>
+    <t>Samadli Murad</t>
+  </si>
+  <si>
+    <t>Humbatli Gulnur</t>
+  </si>
+  <si>
+    <t>Taghiyeva Nargiz</t>
+  </si>
+  <si>
+    <t>Gurbanov Gurban</t>
+  </si>
+  <si>
+    <t>Purmukhtari Turkan</t>
+  </si>
+  <si>
+    <t>Ahmadli Nijat</t>
+  </si>
+  <si>
+    <t>Samedzade Rufat</t>
+  </si>
+  <si>
+    <t>Humbatova Nurlana</t>
+  </si>
+  <si>
+    <t>Abdullayev Muhammad</t>
+  </si>
+  <si>
+    <t>Huseynova Lala</t>
+  </si>
+  <si>
+    <t>Karimli Farid</t>
+  </si>
+  <si>
+    <t>Javadzada Mushfig</t>
+  </si>
+  <si>
+    <t>Khudiyeva Maryam</t>
+  </si>
+  <si>
+    <t>Ahmadova Fatima</t>
+  </si>
+  <si>
+    <t>Aliyev Omar</t>
+  </si>
+  <si>
+    <t>Mukhtarli Ahliman</t>
+  </si>
+  <si>
+    <t>Aghazada Aykhan</t>
+  </si>
+  <si>
+    <t>Ibrahimov Tural</t>
+  </si>
+  <si>
+    <t>Idrisov Tajuddin</t>
+  </si>
+  <si>
+    <t>Abdullayeva Mehriban</t>
+  </si>
+  <si>
+    <t>Umaratov Orkhan</t>
+  </si>
+  <si>
+    <t>CE-22</t>
   </si>
 </sst>
 </file>
@@ -467,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>2.683416666666667</v>
+        <v>6.76825</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>2.65775</v>
+        <v>5.983777777777777</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -520,10 +547,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>2.5765</v>
+        <v>5.907472222222222</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -534,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>2.521416666666667</v>
+        <v>5.77711111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -548,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>2.477333333333333</v>
+        <v>5.745361111111111</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -562,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>2.2395</v>
+        <v>5.517277777777777</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -576,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>2.212666666666666</v>
+        <v>5.425249999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -590,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>2.212083333333333</v>
+        <v>5.394555555555556</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -604,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>2.14925</v>
+        <v>5.355472222222222</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -618,10 +645,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>2.08325</v>
+        <v>5.272555555555555</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -632,10 +659,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>2.047333333333333</v>
+        <v>5.2525</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -646,10 +673,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>1.980083333333333</v>
+        <v>5.187222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -660,10 +687,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>1.9235</v>
+        <v>5.180194444444444</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -674,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>1.82525</v>
+        <v>5.100388888888888</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -688,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>1.813083333333333</v>
+        <v>5.077833333333333</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -702,10 +729,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>1.77725</v>
+        <v>4.991944444444445</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -716,10 +743,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>1.773666666666667</v>
+        <v>4.961138888888888</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -730,10 +757,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>1.637</v>
+        <v>4.888694444444445</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -744,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>1.552833333333333</v>
+        <v>4.847777777777779</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -758,10 +785,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>1.500583333333333</v>
+        <v>4.824555555555555</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -772,10 +799,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>1.317916666666666</v>
+        <v>4.774416666666666</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -786,10 +813,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>1.300583333333333</v>
+        <v>4.493694444444444</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -800,10 +827,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>1.18175</v>
+        <v>4.472805555555555</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -814,10 +841,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>1.074916666666667</v>
+        <v>4.088777777777778</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -828,10 +855,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D26">
-        <v>1.04825</v>
+        <v>3.616888888888889</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -842,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>0.9893333333333332</v>
+        <v>3.327888888888889</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -856,10 +883,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>0.9440833333333333</v>
+        <v>2.976222222222222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -870,9 +897,135 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>2.699694444444444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="D29">
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>2.613833333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31">
+        <v>2.510194444444445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>2.426638888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>2.380944444444444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>2.380305555555555</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>1.733916666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>1.432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>1.046222222222222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
         <v>0</v>
       </c>
     </row>

--- a/web/output.xlsx
+++ b/web/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Unnamed: 2</t>
   </si>
@@ -25,118 +25,91 @@
     <t>average</t>
   </si>
   <si>
-    <t>Babayeva Maryam</t>
-  </si>
-  <si>
-    <t>Bayaliyev Ruslan</t>
-  </si>
-  <si>
-    <t>Musayev Tamerlan</t>
-  </si>
-  <si>
-    <t>Alihumbatova Nazrin</t>
-  </si>
-  <si>
-    <t>Huseynli Raziya</t>
-  </si>
-  <si>
-    <t>Hasanli Safarali</t>
-  </si>
-  <si>
-    <t>Nasirli Javidan</t>
-  </si>
-  <si>
-    <t>Juvarlinski Novruz</t>
-  </si>
-  <si>
-    <t>Abdullayev Amin</t>
-  </si>
-  <si>
-    <t>Imranova Jeyran</t>
-  </si>
-  <si>
-    <t>Muzaffarov Kanan</t>
-  </si>
-  <si>
-    <t>Aliyeva Rana</t>
-  </si>
-  <si>
-    <t>Amrali Zuleykha</t>
-  </si>
-  <si>
-    <t>Farajli Suleyman</t>
-  </si>
-  <si>
-    <t>Ibadov Tamerlan</t>
-  </si>
-  <si>
-    <t>Niftaliyeva Ayshan</t>
-  </si>
-  <si>
-    <t>Samadli Murad</t>
-  </si>
-  <si>
-    <t>Humbatli Gulnur</t>
-  </si>
-  <si>
-    <t>Taghiyeva Nargiz</t>
-  </si>
-  <si>
-    <t>Gurbanov Gurban</t>
-  </si>
-  <si>
-    <t>Purmukhtari Turkan</t>
-  </si>
-  <si>
-    <t>Ahmadli Nijat</t>
-  </si>
-  <si>
-    <t>Samedzade Rufat</t>
-  </si>
-  <si>
-    <t>Humbatova Nurlana</t>
-  </si>
-  <si>
-    <t>Abdullayev Muhammad</t>
-  </si>
-  <si>
-    <t>Huseynova Lala</t>
-  </si>
-  <si>
-    <t>Karimli Farid</t>
-  </si>
-  <si>
-    <t>Javadzada Mushfig</t>
-  </si>
-  <si>
-    <t>Khudiyeva Maryam</t>
-  </si>
-  <si>
-    <t>Ahmadova Fatima</t>
-  </si>
-  <si>
-    <t>Aliyev Omar</t>
-  </si>
-  <si>
-    <t>Mukhtarli Ahliman</t>
-  </si>
-  <si>
-    <t>Aghazada Aykhan</t>
-  </si>
-  <si>
-    <t>Ibrahimov Tural</t>
-  </si>
-  <si>
-    <t>Idrisov Tajuddin</t>
-  </si>
-  <si>
-    <t>Abdullayeva Mehriban</t>
-  </si>
-  <si>
-    <t>Umaratov Orkhan</t>
-  </si>
-  <si>
-    <t>CE-22</t>
+    <t>Sadigli Narmin</t>
+  </si>
+  <si>
+    <t>Abdullayeva Simuzar</t>
+  </si>
+  <si>
+    <t>Kazimova Natella</t>
+  </si>
+  <si>
+    <t>Dashdamirov Azad</t>
+  </si>
+  <si>
+    <t>Guliyev Rasul</t>
+  </si>
+  <si>
+    <t>Aliyev Javid</t>
+  </si>
+  <si>
+    <t>Mehdiyeva Nazrin</t>
+  </si>
+  <si>
+    <t>Nuraliyev Murad</t>
+  </si>
+  <si>
+    <t>Allahverdiyev Kanan</t>
+  </si>
+  <si>
+    <t>Rzayeva Inji</t>
+  </si>
+  <si>
+    <t>Baghirli Murad</t>
+  </si>
+  <si>
+    <t>Nabi Ulkar</t>
+  </si>
+  <si>
+    <t>Gardashaliyeva Aydan</t>
+  </si>
+  <si>
+    <t>Jafarzada Nihad</t>
+  </si>
+  <si>
+    <t>Balayev İzzat</t>
+  </si>
+  <si>
+    <t>Khankishiyev Chingiz</t>
+  </si>
+  <si>
+    <t>Bakhshiyeva Aysel</t>
+  </si>
+  <si>
+    <t>Asgarov Galib</t>
+  </si>
+  <si>
+    <t>Mammadli Eljan</t>
+  </si>
+  <si>
+    <t>Baghirzada Tabriz</t>
+  </si>
+  <si>
+    <t>Gurbanli Zhala</t>
+  </si>
+  <si>
+    <t>Baghirov Yusif</t>
+  </si>
+  <si>
+    <t>Suleymanov Huseyn</t>
+  </si>
+  <si>
+    <t>Ojagverdiyeva Khadija</t>
+  </si>
+  <si>
+    <t>Aliyev Farid</t>
+  </si>
+  <si>
+    <t>Yusifov Said</t>
+  </si>
+  <si>
+    <t>Babazada Rustam</t>
+  </si>
+  <si>
+    <t>Salman Mahammad</t>
+  </si>
+  <si>
+    <t>GE-22</t>
   </si>
 </sst>
 </file>
@@ -494,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>6.76825</v>
+        <v>7.434416666666667</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -533,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>5.983777777777777</v>
+        <v>7.030166666666665</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -547,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>5.907472222222222</v>
+        <v>6.711916666666668</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -561,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>5.77711111111111</v>
+        <v>6.67975</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -575,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>5.745361111111111</v>
+        <v>6.595916666666668</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -589,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>5.517277777777777</v>
+        <v>5.774416666666666</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -603,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>5.425249999999999</v>
+        <v>5.625416666666666</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -617,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>5.394555555555556</v>
+        <v>5.54525</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -631,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>5.355472222222222</v>
+        <v>5.402833333333334</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -645,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>5.272555555555555</v>
+        <v>5.129666666666665</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -659,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>5.2525</v>
+        <v>5.121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -673,10 +646,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>5.187222222222222</v>
+        <v>4.826333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -687,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>5.180194444444444</v>
+        <v>4.692833333333333</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -701,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>5.100388888888888</v>
+        <v>4.679749999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -715,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>5.077833333333333</v>
+        <v>4.601</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -729,10 +702,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>4.991944444444445</v>
+        <v>4.573583333333334</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -743,10 +716,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>4.961138888888888</v>
+        <v>4.38575</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -757,10 +730,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>4.888694444444445</v>
+        <v>3.597</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -771,10 +744,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>4.847777777777779</v>
+        <v>3.522</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -785,10 +758,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>4.824555555555555</v>
+        <v>3.227916666666667</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -799,10 +772,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>4.774416666666666</v>
+        <v>2.980166666666666</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -813,10 +786,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>4.493694444444444</v>
+        <v>2.783916666666667</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -827,10 +800,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>4.472805555555555</v>
+        <v>2.672416666666667</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -841,10 +814,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>4.088777777777778</v>
+        <v>2.636</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -855,10 +828,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>3.616888888888889</v>
+        <v>2.596333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -869,10 +842,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>3.327888888888889</v>
+        <v>2.409916666666667</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -883,10 +856,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>2.976222222222222</v>
+        <v>2.207</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -897,135 +870,9 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>2.699694444444444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30">
-        <v>2.613833333333333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <v>2.510194444444445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32">
-        <v>2.426638888888889</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33">
-        <v>2.380944444444444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34">
-        <v>2.380305555555555</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <v>1.733916666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>1.432</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37">
-        <v>1.046222222222222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38">
         <v>0</v>
       </c>
     </row>

--- a/web/output.xlsx
+++ b/web/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Unnamed: 2</t>
   </si>
@@ -25,91 +25,103 @@
     <t>average</t>
   </si>
   <si>
-    <t>Sadigli Narmin</t>
-  </si>
-  <si>
-    <t>Abdullayeva Simuzar</t>
-  </si>
-  <si>
-    <t>Kazimova Natella</t>
-  </si>
-  <si>
-    <t>Dashdamirov Azad</t>
-  </si>
-  <si>
-    <t>Guliyev Rasul</t>
-  </si>
-  <si>
-    <t>Aliyev Javid</t>
-  </si>
-  <si>
-    <t>Mehdiyeva Nazrin</t>
-  </si>
-  <si>
-    <t>Nuraliyev Murad</t>
-  </si>
-  <si>
-    <t>Allahverdiyev Kanan</t>
-  </si>
-  <si>
-    <t>Rzayeva Inji</t>
-  </si>
-  <si>
-    <t>Baghirli Murad</t>
-  </si>
-  <si>
-    <t>Nabi Ulkar</t>
-  </si>
-  <si>
-    <t>Gardashaliyeva Aydan</t>
-  </si>
-  <si>
-    <t>Jafarzada Nihad</t>
-  </si>
-  <si>
-    <t>Balayev İzzat</t>
-  </si>
-  <si>
-    <t>Khankishiyev Chingiz</t>
-  </si>
-  <si>
-    <t>Bakhshiyeva Aysel</t>
-  </si>
-  <si>
-    <t>Asgarov Galib</t>
-  </si>
-  <si>
-    <t>Mammadli Eljan</t>
-  </si>
-  <si>
-    <t>Baghirzada Tabriz</t>
-  </si>
-  <si>
-    <t>Gurbanli Zhala</t>
-  </si>
-  <si>
-    <t>Baghirov Yusif</t>
-  </si>
-  <si>
-    <t>Suleymanov Huseyn</t>
-  </si>
-  <si>
-    <t>Ojagverdiyeva Khadija</t>
-  </si>
-  <si>
-    <t>Aliyev Farid</t>
-  </si>
-  <si>
-    <t>Yusifov Said</t>
-  </si>
-  <si>
-    <t>Babazada Rustam</t>
-  </si>
-  <si>
-    <t>Salman Mahammad</t>
-  </si>
-  <si>
-    <t>GE-22</t>
+    <t>Azimova Nigar</t>
+  </si>
+  <si>
+    <t>Yolchiyev Parvin</t>
+  </si>
+  <si>
+    <t>Kalantarli Imran</t>
+  </si>
+  <si>
+    <t>Taghiyeva Nazrin</t>
+  </si>
+  <si>
+    <t>Isgandarli Nazrin</t>
+  </si>
+  <si>
+    <t>Karimov Ibrahim</t>
+  </si>
+  <si>
+    <t>Kazimzada Nargiz</t>
+  </si>
+  <si>
+    <t>Mikayilov Asim</t>
+  </si>
+  <si>
+    <t>Kazimova Lala</t>
+  </si>
+  <si>
+    <t>Jafarzada Elshad</t>
+  </si>
+  <si>
+    <t>Aslanova Farida</t>
+  </si>
+  <si>
+    <t>Bashirov Rauf</t>
+  </si>
+  <si>
+    <t>Shahbazov Rasul</t>
+  </si>
+  <si>
+    <t>Ismayilov Yusif</t>
+  </si>
+  <si>
+    <t>Nasibli Nazrin</t>
+  </si>
+  <si>
+    <t>Aliyev Akbar</t>
+  </si>
+  <si>
+    <t>Gurban Yahya</t>
+  </si>
+  <si>
+    <t>Aliyev Islam</t>
+  </si>
+  <si>
+    <t>Hasanov Elshan</t>
+  </si>
+  <si>
+    <t>Abbasova Aytaj</t>
+  </si>
+  <si>
+    <t>Nasirli Zemfirakhanim</t>
+  </si>
+  <si>
+    <t>Hajiyev Javid</t>
+  </si>
+  <si>
+    <t>Ataulova Amina</t>
+  </si>
+  <si>
+    <t>Atlukhanov Emin</t>
+  </si>
+  <si>
+    <t>Shiraliyev Ali</t>
+  </si>
+  <si>
+    <t>Omarli Omar</t>
+  </si>
+  <si>
+    <t>Mahmudov Timur</t>
+  </si>
+  <si>
+    <t>Vakilov Shaig</t>
+  </si>
+  <si>
+    <t>Nurahmadova Diana</t>
+  </si>
+  <si>
+    <t>Niftullayev Ramil</t>
+  </si>
+  <si>
+    <t>Huseynov Vugar</t>
+  </si>
+  <si>
+    <t>Mammadzada Ali</t>
+  </si>
+  <si>
+    <t>PE-22</t>
   </si>
 </sst>
 </file>
@@ -467,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>7.434416666666667</v>
+        <v>16.76285</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -506,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>7.030166666666665</v>
+        <v>16.34836666666666</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -520,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>6.711916666666668</v>
+        <v>14.86286666666667</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -534,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>6.67975</v>
+        <v>14.54618333333334</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -548,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>6.595916666666668</v>
+        <v>14.41011666666667</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -562,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>5.774416666666666</v>
+        <v>14.30711666666667</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -576,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>5.625416666666666</v>
+        <v>14.28153333333333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -590,10 +602,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>5.54525</v>
+        <v>13.1197</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -604,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>5.402833333333334</v>
+        <v>12.92608333333333</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -618,10 +630,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>5.129666666666665</v>
+        <v>12.92278333333333</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -632,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>5.121</v>
+        <v>12.0422</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -646,10 +658,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>4.826333333333334</v>
+        <v>11.9536</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -660,10 +672,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>4.692833333333333</v>
+        <v>11.9012</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -674,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>4.679749999999999</v>
+        <v>11.79103333333333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -688,10 +700,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>4.601</v>
+        <v>11.6842</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -702,10 +714,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>4.573583333333334</v>
+        <v>11.6522</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -716,10 +728,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>4.38575</v>
+        <v>11.49161666666667</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -730,10 +742,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>3.597</v>
+        <v>11.4626</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -744,10 +756,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>3.522</v>
+        <v>11.39261666666666</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -758,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>3.227916666666667</v>
+        <v>11.0897</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -772,10 +784,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>2.980166666666666</v>
+        <v>10.70936666666667</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -786,10 +798,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>2.783916666666667</v>
+        <v>10.6027</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -800,10 +812,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>2.672416666666667</v>
+        <v>10.20045</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -814,10 +826,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>2.636</v>
+        <v>10.15295</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -828,10 +840,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>2.596333333333333</v>
+        <v>10.1212</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -842,10 +854,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>2.409916666666667</v>
+        <v>9.955950000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -856,10 +868,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>2.207</v>
+        <v>9.214533333333334</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -870,10 +882,66 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>9.04945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>8.711883333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>7.885533333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>7.730133333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>6.48485</v>
       </c>
     </row>
   </sheetData>
